--- a/src/data/advance.xlsx
+++ b/src/data/advance.xlsx
@@ -5467,7 +5467,7 @@
         <v>1493</v>
       </c>
       <c r="H2" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5493,7 +5493,7 @@
         <v>1494</v>
       </c>
       <c r="H3" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5519,7 +5519,7 @@
         <v>1495</v>
       </c>
       <c r="H4" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5545,7 +5545,7 @@
         <v>1496</v>
       </c>
       <c r="H5" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5571,7 +5571,7 @@
         <v>1497</v>
       </c>
       <c r="H6" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5597,7 +5597,7 @@
         <v>1498</v>
       </c>
       <c r="H7" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5623,7 +5623,7 @@
         <v>1499</v>
       </c>
       <c r="H8" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5649,7 +5649,7 @@
         <v>1500</v>
       </c>
       <c r="H9" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5675,7 +5675,7 @@
         <v>1501</v>
       </c>
       <c r="H10" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5701,7 +5701,7 @@
         <v>1502</v>
       </c>
       <c r="H11" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5727,7 +5727,7 @@
         <v>1503</v>
       </c>
       <c r="H12" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -5753,7 +5753,7 @@
         <v>1504</v>
       </c>
       <c r="H13" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -5779,7 +5779,7 @@
         <v>1505</v>
       </c>
       <c r="H14" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5805,7 +5805,7 @@
         <v>1506</v>
       </c>
       <c r="H15" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5831,7 +5831,7 @@
         <v>1507</v>
       </c>
       <c r="H16" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5857,7 +5857,7 @@
         <v>1508</v>
       </c>
       <c r="H17" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5883,7 +5883,7 @@
         <v>1509</v>
       </c>
       <c r="H18" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -5909,7 +5909,7 @@
         <v>1510</v>
       </c>
       <c r="H19" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -5935,7 +5935,7 @@
         <v>1511</v>
       </c>
       <c r="H20" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5961,7 +5961,7 @@
         <v>1512</v>
       </c>
       <c r="H21" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -5987,7 +5987,7 @@
         <v>1513</v>
       </c>
       <c r="H22" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6013,7 +6013,7 @@
         <v>1514</v>
       </c>
       <c r="H23" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6039,7 +6039,7 @@
         <v>1515</v>
       </c>
       <c r="H24" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6065,7 +6065,7 @@
         <v>1516</v>
       </c>
       <c r="H25" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6091,7 +6091,7 @@
         <v>1517</v>
       </c>
       <c r="H26" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6117,7 +6117,7 @@
         <v>1518</v>
       </c>
       <c r="H27" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6143,7 +6143,7 @@
         <v>1519</v>
       </c>
       <c r="H28" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6169,7 +6169,7 @@
         <v>1520</v>
       </c>
       <c r="H29" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6195,7 +6195,7 @@
         <v>1521</v>
       </c>
       <c r="H30" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6221,7 +6221,7 @@
         <v>1522</v>
       </c>
       <c r="H31" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6247,7 +6247,7 @@
         <v>1523</v>
       </c>
       <c r="H32" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6273,7 +6273,7 @@
         <v>1524</v>
       </c>
       <c r="H33" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6299,7 +6299,7 @@
         <v>1525</v>
       </c>
       <c r="H34" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6325,7 +6325,7 @@
         <v>1526</v>
       </c>
       <c r="H35" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6351,7 +6351,7 @@
         <v>1527</v>
       </c>
       <c r="H36" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6377,7 +6377,7 @@
         <v>1528</v>
       </c>
       <c r="H37" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6403,7 +6403,7 @@
         <v>1529</v>
       </c>
       <c r="H38" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6429,7 +6429,7 @@
         <v>1530</v>
       </c>
       <c r="H39" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6455,7 +6455,7 @@
         <v>1531</v>
       </c>
       <c r="H40" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6481,7 +6481,7 @@
         <v>1532</v>
       </c>
       <c r="H41" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6507,7 +6507,7 @@
         <v>1533</v>
       </c>
       <c r="H42" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6533,7 +6533,7 @@
         <v>1534</v>
       </c>
       <c r="H43" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6559,7 +6559,7 @@
         <v>1535</v>
       </c>
       <c r="H44" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6585,7 +6585,7 @@
         <v>1536</v>
       </c>
       <c r="H45" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6611,7 +6611,7 @@
         <v>1537</v>
       </c>
       <c r="H46" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6637,7 +6637,7 @@
         <v>1538</v>
       </c>
       <c r="H47" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6663,7 +6663,7 @@
         <v>1539</v>
       </c>
       <c r="H48" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6689,7 +6689,7 @@
         <v>1540</v>
       </c>
       <c r="H49" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -6715,7 +6715,7 @@
         <v>1541</v>
       </c>
       <c r="H50" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6741,7 +6741,7 @@
         <v>1542</v>
       </c>
       <c r="H51" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -6767,7 +6767,7 @@
         <v>1543</v>
       </c>
       <c r="H52" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -6793,7 +6793,7 @@
         <v>1544</v>
       </c>
       <c r="H53" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -6819,7 +6819,7 @@
         <v>1545</v>
       </c>
       <c r="H54" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -6845,7 +6845,7 @@
         <v>1546</v>
       </c>
       <c r="H55" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -6871,7 +6871,7 @@
         <v>1547</v>
       </c>
       <c r="H56" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -6897,7 +6897,7 @@
         <v>1548</v>
       </c>
       <c r="H57" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -6923,7 +6923,7 @@
         <v>1549</v>
       </c>
       <c r="H58" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -6949,7 +6949,7 @@
         <v>1550</v>
       </c>
       <c r="H59" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6975,7 +6975,7 @@
         <v>1215</v>
       </c>
       <c r="H60" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7001,7 +7001,7 @@
         <v>1551</v>
       </c>
       <c r="H61" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7027,7 +7027,7 @@
         <v>1552</v>
       </c>
       <c r="H62" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7053,7 +7053,7 @@
         <v>1553</v>
       </c>
       <c r="H63" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7079,7 +7079,7 @@
         <v>1554</v>
       </c>
       <c r="H64" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7105,7 +7105,7 @@
         <v>1555</v>
       </c>
       <c r="H65" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7131,7 +7131,7 @@
         <v>1556</v>
       </c>
       <c r="H66" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7157,7 +7157,7 @@
         <v>1557</v>
       </c>
       <c r="H67" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7183,7 +7183,7 @@
         <v>1558</v>
       </c>
       <c r="H68" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7209,7 +7209,7 @@
         <v>1559</v>
       </c>
       <c r="H69" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7235,7 +7235,7 @@
         <v>1560</v>
       </c>
       <c r="H70" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7261,7 +7261,7 @@
         <v>1561</v>
       </c>
       <c r="H71" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7287,7 +7287,7 @@
         <v>1562</v>
       </c>
       <c r="H72" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7313,7 +7313,7 @@
         <v>1563</v>
       </c>
       <c r="H73" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7339,7 +7339,7 @@
         <v>1564</v>
       </c>
       <c r="H74" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7365,7 +7365,7 @@
         <v>1565</v>
       </c>
       <c r="H75" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7391,7 +7391,7 @@
         <v>1566</v>
       </c>
       <c r="H76" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7417,7 +7417,7 @@
         <v>1567</v>
       </c>
       <c r="H77" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7443,7 +7443,7 @@
         <v>1568</v>
       </c>
       <c r="H78" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7469,7 +7469,7 @@
         <v>1569</v>
       </c>
       <c r="H79" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7495,7 +7495,7 @@
         <v>1570</v>
       </c>
       <c r="H80" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7521,7 +7521,7 @@
         <v>1571</v>
       </c>
       <c r="H81" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7547,7 +7547,7 @@
         <v>1572</v>
       </c>
       <c r="H82" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7573,7 +7573,7 @@
         <v>1573</v>
       </c>
       <c r="H83" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7599,7 +7599,7 @@
         <v>1574</v>
       </c>
       <c r="H84" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7625,7 +7625,7 @@
         <v>1575</v>
       </c>
       <c r="H85" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7651,7 +7651,7 @@
         <v>1576</v>
       </c>
       <c r="H86" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7677,7 +7677,7 @@
         <v>1577</v>
       </c>
       <c r="H87" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7703,7 +7703,7 @@
         <v>1578</v>
       </c>
       <c r="H88" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -7729,7 +7729,7 @@
         <v>1579</v>
       </c>
       <c r="H89" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -7755,7 +7755,7 @@
         <v>1580</v>
       </c>
       <c r="H90" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -7781,7 +7781,7 @@
         <v>1581</v>
       </c>
       <c r="H91" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -7807,7 +7807,7 @@
         <v>1582</v>
       </c>
       <c r="H92" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -7833,7 +7833,7 @@
         <v>1583</v>
       </c>
       <c r="H93" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -7859,7 +7859,7 @@
         <v>1584</v>
       </c>
       <c r="H94" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -7885,7 +7885,7 @@
         <v>1585</v>
       </c>
       <c r="H95" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -7911,7 +7911,7 @@
         <v>1586</v>
       </c>
       <c r="H96" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -7937,7 +7937,7 @@
         <v>1587</v>
       </c>
       <c r="H97" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -7963,7 +7963,7 @@
         <v>1588</v>
       </c>
       <c r="H98" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -7989,7 +7989,7 @@
         <v>1589</v>
       </c>
       <c r="H99" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8015,7 +8015,7 @@
         <v>1590</v>
       </c>
       <c r="H100" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8041,7 +8041,7 @@
         <v>1591</v>
       </c>
       <c r="H101" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8067,7 +8067,7 @@
         <v>1592</v>
       </c>
       <c r="H102" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8093,7 +8093,7 @@
         <v>1593</v>
       </c>
       <c r="H103" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8119,7 +8119,7 @@
         <v>1594</v>
       </c>
       <c r="H104" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8145,7 +8145,7 @@
         <v>1595</v>
       </c>
       <c r="H105" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8171,7 +8171,7 @@
         <v>1596</v>
       </c>
       <c r="H106" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8197,7 +8197,7 @@
         <v>1597</v>
       </c>
       <c r="H107" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8223,7 +8223,7 @@
         <v>1598</v>
       </c>
       <c r="H108" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8249,7 +8249,7 @@
         <v>1599</v>
       </c>
       <c r="H109" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8275,7 +8275,7 @@
         <v>1600</v>
       </c>
       <c r="H110" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8301,7 +8301,7 @@
         <v>1601</v>
       </c>
       <c r="H111" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8327,7 +8327,7 @@
         <v>1602</v>
       </c>
       <c r="H112" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8353,7 +8353,7 @@
         <v>1603</v>
       </c>
       <c r="H113" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8379,7 +8379,7 @@
         <v>1604</v>
       </c>
       <c r="H114" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8405,7 +8405,7 @@
         <v>1605</v>
       </c>
       <c r="H115" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8431,7 +8431,7 @@
         <v>1606</v>
       </c>
       <c r="H116" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8457,7 +8457,7 @@
         <v>1607</v>
       </c>
       <c r="H117" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8483,7 +8483,7 @@
         <v>1608</v>
       </c>
       <c r="H118" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8509,7 +8509,7 @@
         <v>1609</v>
       </c>
       <c r="H119" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8535,7 +8535,7 @@
         <v>1610</v>
       </c>
       <c r="H120" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8561,7 +8561,7 @@
         <v>1611</v>
       </c>
       <c r="H121" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8587,7 +8587,7 @@
         <v>1612</v>
       </c>
       <c r="H122" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8613,7 +8613,7 @@
         <v>1613</v>
       </c>
       <c r="H123" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8639,7 +8639,7 @@
         <v>1614</v>
       </c>
       <c r="H124" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8665,7 +8665,7 @@
         <v>1615</v>
       </c>
       <c r="H125" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8691,7 +8691,7 @@
         <v>1616</v>
       </c>
       <c r="H126" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -8717,7 +8717,7 @@
         <v>1617</v>
       </c>
       <c r="H127" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -8743,7 +8743,7 @@
         <v>1440</v>
       </c>
       <c r="H128" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -8769,7 +8769,7 @@
         <v>1618</v>
       </c>
       <c r="H129" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -8795,7 +8795,7 @@
         <v>1619</v>
       </c>
       <c r="H130" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -8821,7 +8821,7 @@
         <v>1620</v>
       </c>
       <c r="H131" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -8847,7 +8847,7 @@
         <v>1621</v>
       </c>
       <c r="H132" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -8873,7 +8873,7 @@
         <v>1622</v>
       </c>
       <c r="H133" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -8899,7 +8899,7 @@
         <v>1623</v>
       </c>
       <c r="H134" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -8925,7 +8925,7 @@
         <v>1624</v>
       </c>
       <c r="H135" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -8951,7 +8951,7 @@
         <v>1625</v>
       </c>
       <c r="H136" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -8977,7 +8977,7 @@
         <v>1626</v>
       </c>
       <c r="H137" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9003,7 +9003,7 @@
         <v>1627</v>
       </c>
       <c r="H138" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9029,7 +9029,7 @@
         <v>1628</v>
       </c>
       <c r="H139" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9055,7 +9055,7 @@
         <v>1629</v>
       </c>
       <c r="H140" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9081,7 +9081,7 @@
         <v>1630</v>
       </c>
       <c r="H141" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9107,7 +9107,7 @@
         <v>1631</v>
       </c>
       <c r="H142" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9133,7 +9133,7 @@
         <v>1632</v>
       </c>
       <c r="H143" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9159,7 +9159,7 @@
         <v>1633</v>
       </c>
       <c r="H144" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9185,7 +9185,7 @@
         <v>1634</v>
       </c>
       <c r="H145" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9211,7 +9211,7 @@
         <v>1635</v>
       </c>
       <c r="H146" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9237,7 +9237,7 @@
         <v>1636</v>
       </c>
       <c r="H147" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9263,7 +9263,7 @@
         <v>1637</v>
       </c>
       <c r="H148" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9289,7 +9289,7 @@
         <v>1638</v>
       </c>
       <c r="H149" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9315,7 +9315,7 @@
         <v>1639</v>
       </c>
       <c r="H150" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9341,7 +9341,7 @@
         <v>1640</v>
       </c>
       <c r="H151" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9367,7 +9367,7 @@
         <v>1641</v>
       </c>
       <c r="H152" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9393,7 +9393,7 @@
         <v>644</v>
       </c>
       <c r="H153" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9419,7 +9419,7 @@
         <v>775</v>
       </c>
       <c r="H154" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9445,7 +9445,7 @@
         <v>1642</v>
       </c>
       <c r="H155" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9471,7 +9471,7 @@
         <v>1643</v>
       </c>
       <c r="H156" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9497,7 +9497,7 @@
         <v>1644</v>
       </c>
       <c r="H157" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9523,7 +9523,7 @@
         <v>1645</v>
       </c>
       <c r="H158" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9549,7 +9549,7 @@
         <v>1646</v>
       </c>
       <c r="H159" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9575,7 +9575,7 @@
         <v>1647</v>
       </c>
       <c r="H160" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9601,7 +9601,7 @@
         <v>1648</v>
       </c>
       <c r="H161" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9627,7 +9627,7 @@
         <v>1649</v>
       </c>
       <c r="H162" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9653,7 +9653,7 @@
         <v>1649</v>
       </c>
       <c r="H163" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9679,7 +9679,7 @@
         <v>1650</v>
       </c>
       <c r="H164" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -9705,7 +9705,7 @@
         <v>1651</v>
       </c>
       <c r="H165" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -9731,7 +9731,7 @@
         <v>1652</v>
       </c>
       <c r="H166" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -9757,7 +9757,7 @@
         <v>1653</v>
       </c>
       <c r="H167" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -9783,7 +9783,7 @@
         <v>1653</v>
       </c>
       <c r="H168" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -9809,7 +9809,7 @@
         <v>1654</v>
       </c>
       <c r="H169" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -9835,7 +9835,7 @@
         <v>1655</v>
       </c>
       <c r="H170" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -9861,7 +9861,7 @@
         <v>728</v>
       </c>
       <c r="H171" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -9887,7 +9887,7 @@
         <v>1656</v>
       </c>
       <c r="H172" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -9913,7 +9913,7 @@
         <v>1657</v>
       </c>
       <c r="H173" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -9939,7 +9939,7 @@
         <v>1657</v>
       </c>
       <c r="H174" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -9965,7 +9965,7 @@
         <v>1658</v>
       </c>
       <c r="H175" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -9991,7 +9991,7 @@
         <v>808</v>
       </c>
       <c r="H176" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10017,7 +10017,7 @@
         <v>707</v>
       </c>
       <c r="H177" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10043,7 +10043,7 @@
         <v>792</v>
       </c>
       <c r="H178" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10069,7 +10069,7 @@
         <v>729</v>
       </c>
       <c r="H179" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10095,7 +10095,7 @@
         <v>1659</v>
       </c>
       <c r="H180" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10121,7 +10121,7 @@
         <v>780</v>
       </c>
       <c r="H181" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10147,7 +10147,7 @@
         <v>1660</v>
       </c>
       <c r="H182" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10173,7 +10173,7 @@
         <v>831</v>
       </c>
       <c r="H183" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10199,7 +10199,7 @@
         <v>1661</v>
       </c>
       <c r="H184" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10225,7 +10225,7 @@
         <v>738</v>
       </c>
       <c r="H185" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10251,7 +10251,7 @@
         <v>758</v>
       </c>
       <c r="H186" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10277,7 +10277,7 @@
         <v>1662</v>
       </c>
       <c r="H187" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10303,7 +10303,7 @@
         <v>819</v>
       </c>
       <c r="H188" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10329,7 +10329,7 @@
         <v>1663</v>
       </c>
       <c r="H189" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10355,7 +10355,7 @@
         <v>1441</v>
       </c>
       <c r="H190" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10381,7 +10381,7 @@
         <v>693</v>
       </c>
       <c r="H191" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10407,7 +10407,7 @@
         <v>1664</v>
       </c>
       <c r="H192" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10433,7 +10433,7 @@
         <v>589</v>
       </c>
       <c r="H193" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10459,7 +10459,7 @@
         <v>1467</v>
       </c>
       <c r="H194" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10485,7 +10485,7 @@
         <v>1665</v>
       </c>
       <c r="H195" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10511,7 +10511,7 @@
         <v>606</v>
       </c>
       <c r="H196" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10537,7 +10537,7 @@
         <v>645</v>
       </c>
       <c r="H197" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10563,7 +10563,7 @@
         <v>1666</v>
       </c>
       <c r="H198" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10589,7 +10589,7 @@
         <v>1667</v>
       </c>
       <c r="H199" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10615,7 +10615,7 @@
         <v>630</v>
       </c>
       <c r="H200" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10641,7 +10641,7 @@
         <v>1668</v>
       </c>
       <c r="H201" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10667,7 +10667,7 @@
         <v>1669</v>
       </c>
       <c r="H202" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10693,7 +10693,7 @@
         <v>1670</v>
       </c>
       <c r="H203" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -10719,7 +10719,7 @@
         <v>1671</v>
       </c>
       <c r="H204" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -10745,7 +10745,7 @@
         <v>1672</v>
       </c>
       <c r="H205" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -10771,7 +10771,7 @@
         <v>773</v>
       </c>
       <c r="H206" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -10797,7 +10797,7 @@
         <v>581</v>
       </c>
       <c r="H207" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -10823,7 +10823,7 @@
         <v>1673</v>
       </c>
       <c r="H208" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -10849,7 +10849,7 @@
         <v>595</v>
       </c>
       <c r="H209" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -10875,7 +10875,7 @@
         <v>760</v>
       </c>
       <c r="H210" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -10901,7 +10901,7 @@
         <v>1414</v>
       </c>
       <c r="H211" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -10927,7 +10927,7 @@
         <v>1414</v>
       </c>
       <c r="H212" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -10953,7 +10953,7 @@
         <v>1414</v>
       </c>
       <c r="H213" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -10979,7 +10979,7 @@
         <v>762</v>
       </c>
       <c r="H214" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11005,7 +11005,7 @@
         <v>1674</v>
       </c>
       <c r="H215" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11031,7 +11031,7 @@
         <v>1674</v>
       </c>
       <c r="H216" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11057,7 +11057,7 @@
         <v>1484</v>
       </c>
       <c r="H217" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11083,7 +11083,7 @@
         <v>655</v>
       </c>
       <c r="H218" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11109,7 +11109,7 @@
         <v>662</v>
       </c>
       <c r="H219" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11135,7 +11135,7 @@
         <v>820</v>
       </c>
       <c r="H220" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11161,7 +11161,7 @@
         <v>593</v>
       </c>
       <c r="H221" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11187,7 +11187,7 @@
         <v>1675</v>
       </c>
       <c r="H222" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11213,7 +11213,7 @@
         <v>1675</v>
       </c>
       <c r="H223" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11239,7 +11239,7 @@
         <v>816</v>
       </c>
       <c r="H224" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11265,7 +11265,7 @@
         <v>1447</v>
       </c>
       <c r="H225" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11291,7 +11291,7 @@
         <v>701</v>
       </c>
       <c r="H226" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11317,7 +11317,7 @@
         <v>717</v>
       </c>
       <c r="H227" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11343,7 +11343,7 @@
         <v>1676</v>
       </c>
       <c r="H228" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11369,7 +11369,7 @@
         <v>705</v>
       </c>
       <c r="H229" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11395,7 +11395,7 @@
         <v>705</v>
       </c>
       <c r="H230" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11421,7 +11421,7 @@
         <v>740</v>
       </c>
       <c r="H231" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11447,7 +11447,7 @@
         <v>789</v>
       </c>
       <c r="H232" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11473,7 +11473,7 @@
         <v>776</v>
       </c>
       <c r="H233" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11499,7 +11499,7 @@
         <v>776</v>
       </c>
       <c r="H234" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11525,7 +11525,7 @@
         <v>776</v>
       </c>
       <c r="H235" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11551,7 +11551,7 @@
         <v>800</v>
       </c>
       <c r="H236" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11577,7 +11577,7 @@
         <v>666</v>
       </c>
       <c r="H237" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11603,7 +11603,7 @@
         <v>699</v>
       </c>
       <c r="H238" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11629,7 +11629,7 @@
         <v>577</v>
       </c>
       <c r="H239" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11655,7 +11655,7 @@
         <v>577</v>
       </c>
       <c r="H240" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11681,7 +11681,7 @@
         <v>683</v>
       </c>
       <c r="H241" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11707,7 +11707,7 @@
         <v>757</v>
       </c>
       <c r="H242" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -11733,7 +11733,7 @@
         <v>694</v>
       </c>
       <c r="H243" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -11759,7 +11759,7 @@
         <v>622</v>
       </c>
       <c r="H244" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -11785,7 +11785,7 @@
         <v>745</v>
       </c>
       <c r="H245" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11811,7 +11811,7 @@
         <v>791</v>
       </c>
       <c r="H246" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -11837,7 +11837,7 @@
         <v>1677</v>
       </c>
       <c r="H247" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -11863,7 +11863,7 @@
         <v>678</v>
       </c>
       <c r="H248" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -11889,7 +11889,7 @@
         <v>569</v>
       </c>
       <c r="H249" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -11915,7 +11915,7 @@
         <v>817</v>
       </c>
       <c r="H250" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -11941,7 +11941,7 @@
         <v>817</v>
       </c>
       <c r="H251" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -11967,7 +11967,7 @@
         <v>783</v>
       </c>
       <c r="H252" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -11993,7 +11993,7 @@
         <v>695</v>
       </c>
       <c r="H253" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12019,7 +12019,7 @@
         <v>695</v>
       </c>
       <c r="H254" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12045,7 +12045,7 @@
         <v>621</v>
       </c>
       <c r="H255" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12071,7 +12071,7 @@
         <v>668</v>
       </c>
       <c r="H256" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12097,7 +12097,7 @@
         <v>823</v>
       </c>
       <c r="H257" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12123,7 +12123,7 @@
         <v>639</v>
       </c>
       <c r="H258" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12149,7 +12149,7 @@
         <v>617</v>
       </c>
       <c r="H259" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12175,7 +12175,7 @@
         <v>627</v>
       </c>
       <c r="H260" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12201,7 +12201,7 @@
         <v>700</v>
       </c>
       <c r="H261" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12227,7 +12227,7 @@
         <v>584</v>
       </c>
       <c r="H262" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12253,7 +12253,7 @@
         <v>605</v>
       </c>
       <c r="H263" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12279,7 +12279,7 @@
         <v>732</v>
       </c>
       <c r="H264" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12305,7 +12305,7 @@
         <v>732</v>
       </c>
       <c r="H265" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12331,7 +12331,7 @@
         <v>732</v>
       </c>
       <c r="H266" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12357,7 +12357,7 @@
         <v>732</v>
       </c>
       <c r="H267" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12383,7 +12383,7 @@
         <v>704</v>
       </c>
       <c r="H268" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12409,7 +12409,7 @@
         <v>629</v>
       </c>
       <c r="H269" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12435,7 +12435,7 @@
         <v>1678</v>
       </c>
       <c r="H270" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12461,7 +12461,7 @@
         <v>826</v>
       </c>
       <c r="H271" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12487,7 +12487,7 @@
         <v>657</v>
       </c>
       <c r="H272" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12513,7 +12513,7 @@
         <v>824</v>
       </c>
       <c r="H273" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12539,7 +12539,7 @@
         <v>708</v>
       </c>
       <c r="H274" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12565,7 +12565,7 @@
         <v>591</v>
       </c>
       <c r="H275" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12591,7 +12591,7 @@
         <v>737</v>
       </c>
       <c r="H276" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12617,7 +12617,7 @@
         <v>764</v>
       </c>
       <c r="H277" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12643,7 +12643,7 @@
         <v>575</v>
       </c>
       <c r="H278" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12669,7 +12669,7 @@
         <v>575</v>
       </c>
       <c r="H279" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12695,7 +12695,7 @@
         <v>575</v>
       </c>
       <c r="H280" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -12721,7 +12721,7 @@
         <v>575</v>
       </c>
       <c r="H281" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -12747,7 +12747,7 @@
         <v>575</v>
       </c>
       <c r="H282" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -12773,7 +12773,7 @@
         <v>832</v>
       </c>
       <c r="H283" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -12799,7 +12799,7 @@
         <v>640</v>
       </c>
       <c r="H284" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -12825,7 +12825,7 @@
         <v>609</v>
       </c>
       <c r="H285" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -12851,7 +12851,7 @@
         <v>609</v>
       </c>
       <c r="H286" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -12877,7 +12877,7 @@
         <v>1472</v>
       </c>
       <c r="H287" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -12903,7 +12903,7 @@
         <v>596</v>
       </c>
       <c r="H288" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -12929,7 +12929,7 @@
         <v>596</v>
       </c>
       <c r="H289" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -12955,7 +12955,7 @@
         <v>596</v>
       </c>
       <c r="H290" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -12981,7 +12981,7 @@
         <v>681</v>
       </c>
       <c r="H291" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13007,7 +13007,7 @@
         <v>576</v>
       </c>
       <c r="H292" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13033,7 +13033,7 @@
         <v>692</v>
       </c>
       <c r="H293" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13059,7 +13059,7 @@
         <v>778</v>
       </c>
       <c r="H294" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13085,7 +13085,7 @@
         <v>778</v>
       </c>
       <c r="H295" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13111,7 +13111,7 @@
         <v>567</v>
       </c>
       <c r="H296" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13137,7 +13137,7 @@
         <v>675</v>
       </c>
       <c r="H297" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13163,7 +13163,7 @@
         <v>675</v>
       </c>
       <c r="H298" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13189,7 +13189,7 @@
         <v>675</v>
       </c>
       <c r="H299" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13215,7 +13215,7 @@
         <v>675</v>
       </c>
       <c r="H300" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13241,7 +13241,7 @@
         <v>675</v>
       </c>
       <c r="H301" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13267,7 +13267,7 @@
         <v>748</v>
       </c>
       <c r="H302" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13293,7 +13293,7 @@
         <v>748</v>
       </c>
       <c r="H303" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13319,7 +13319,7 @@
         <v>586</v>
       </c>
       <c r="H304" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13345,7 +13345,7 @@
         <v>586</v>
       </c>
       <c r="H305" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13371,7 +13371,7 @@
         <v>586</v>
       </c>
       <c r="H306" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13397,7 +13397,7 @@
         <v>656</v>
       </c>
       <c r="H307" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13423,7 +13423,7 @@
         <v>656</v>
       </c>
       <c r="H308" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13449,7 +13449,7 @@
         <v>656</v>
       </c>
       <c r="H309" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13475,7 +13475,7 @@
         <v>656</v>
       </c>
       <c r="H310" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13501,7 +13501,7 @@
         <v>568</v>
       </c>
       <c r="H311" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13527,7 +13527,7 @@
         <v>747</v>
       </c>
       <c r="H312" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13553,7 +13553,7 @@
         <v>747</v>
       </c>
       <c r="H313" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13579,7 +13579,7 @@
         <v>672</v>
       </c>
       <c r="H314" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13605,7 +13605,7 @@
         <v>672</v>
       </c>
       <c r="H315" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13631,7 +13631,7 @@
         <v>664</v>
       </c>
       <c r="H316" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13657,7 +13657,7 @@
         <v>612</v>
       </c>
       <c r="H317" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13683,7 +13683,7 @@
         <v>702</v>
       </c>
       <c r="H318" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13709,7 +13709,7 @@
         <v>702</v>
       </c>
       <c r="H319" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -13735,7 +13735,7 @@
         <v>702</v>
       </c>
       <c r="H320" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -13761,7 +13761,7 @@
         <v>702</v>
       </c>
       <c r="H321" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -13787,7 +13787,7 @@
         <v>702</v>
       </c>
       <c r="H322" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -13813,7 +13813,7 @@
         <v>1426</v>
       </c>
       <c r="H323" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -13839,7 +13839,7 @@
         <v>580</v>
       </c>
       <c r="H324" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -13865,7 +13865,7 @@
         <v>580</v>
       </c>
       <c r="H325" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -13891,7 +13891,7 @@
         <v>580</v>
       </c>
       <c r="H326" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -13917,7 +13917,7 @@
         <v>667</v>
       </c>
       <c r="H327" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -13943,7 +13943,7 @@
         <v>667</v>
       </c>
       <c r="H328" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -13969,7 +13969,7 @@
         <v>667</v>
       </c>
       <c r="H329" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -13995,7 +13995,7 @@
         <v>667</v>
       </c>
       <c r="H330" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14021,7 +14021,7 @@
         <v>579</v>
       </c>
       <c r="H331" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14047,7 +14047,7 @@
         <v>579</v>
       </c>
       <c r="H332" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14073,7 +14073,7 @@
         <v>579</v>
       </c>
       <c r="H333" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14099,7 +14099,7 @@
         <v>787</v>
       </c>
       <c r="H334" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14125,7 +14125,7 @@
         <v>787</v>
       </c>
       <c r="H335" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14151,7 +14151,7 @@
         <v>787</v>
       </c>
       <c r="H336" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14177,7 +14177,7 @@
         <v>787</v>
       </c>
       <c r="H337" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14203,7 +14203,7 @@
         <v>787</v>
       </c>
       <c r="H338" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14229,7 +14229,7 @@
         <v>787</v>
       </c>
       <c r="H339" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14255,7 +14255,7 @@
         <v>648</v>
       </c>
       <c r="H340" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14281,7 +14281,7 @@
         <v>1449</v>
       </c>
       <c r="H341" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14307,7 +14307,7 @@
         <v>1449</v>
       </c>
       <c r="H342" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14333,7 +14333,7 @@
         <v>689</v>
       </c>
       <c r="H343" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14359,7 +14359,7 @@
         <v>689</v>
       </c>
       <c r="H344" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14385,7 +14385,7 @@
         <v>689</v>
       </c>
       <c r="H345" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14411,7 +14411,7 @@
         <v>689</v>
       </c>
       <c r="H346" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14437,7 +14437,7 @@
         <v>689</v>
       </c>
       <c r="H347" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14463,7 +14463,7 @@
         <v>689</v>
       </c>
       <c r="H348" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14489,7 +14489,7 @@
         <v>689</v>
       </c>
       <c r="H349" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14515,7 +14515,7 @@
         <v>1477</v>
       </c>
       <c r="H350" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14541,7 +14541,7 @@
         <v>1477</v>
       </c>
       <c r="H351" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14567,7 +14567,7 @@
         <v>768</v>
       </c>
       <c r="H352" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14593,7 +14593,7 @@
         <v>768</v>
       </c>
       <c r="H353" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14619,7 +14619,7 @@
         <v>768</v>
       </c>
       <c r="H354" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14645,7 +14645,7 @@
         <v>565</v>
       </c>
       <c r="H355" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14671,7 +14671,7 @@
         <v>565</v>
       </c>
       <c r="H356" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14697,7 +14697,7 @@
         <v>565</v>
       </c>
       <c r="H357" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -14723,7 +14723,7 @@
         <v>565</v>
       </c>
       <c r="H358" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -14749,7 +14749,7 @@
         <v>565</v>
       </c>
       <c r="H359" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -14775,7 +14775,7 @@
         <v>1446</v>
       </c>
       <c r="H360" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -14801,7 +14801,7 @@
         <v>1446</v>
       </c>
       <c r="H361" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -14827,7 +14827,7 @@
         <v>1446</v>
       </c>
       <c r="H362" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -14853,7 +14853,7 @@
         <v>1446</v>
       </c>
       <c r="H363" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -14879,7 +14879,7 @@
         <v>1446</v>
       </c>
       <c r="H364" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -14905,7 +14905,7 @@
         <v>1446</v>
       </c>
       <c r="H365" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -14931,7 +14931,7 @@
         <v>650</v>
       </c>
       <c r="H366" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -14957,7 +14957,7 @@
         <v>650</v>
       </c>
       <c r="H367" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -14983,7 +14983,7 @@
         <v>703</v>
       </c>
       <c r="H368" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15009,7 +15009,7 @@
         <v>703</v>
       </c>
       <c r="H369" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15035,7 +15035,7 @@
         <v>703</v>
       </c>
       <c r="H370" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15061,7 +15061,7 @@
         <v>687</v>
       </c>
       <c r="H371" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15087,7 +15087,7 @@
         <v>687</v>
       </c>
       <c r="H372" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15113,7 +15113,7 @@
         <v>687</v>
       </c>
       <c r="H373" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15139,7 +15139,7 @@
         <v>687</v>
       </c>
       <c r="H374" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15165,7 +15165,7 @@
         <v>687</v>
       </c>
       <c r="H375" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15191,7 +15191,7 @@
         <v>687</v>
       </c>
       <c r="H376" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15217,7 +15217,7 @@
         <v>687</v>
       </c>
       <c r="H377" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15243,7 +15243,7 @@
         <v>687</v>
       </c>
       <c r="H378" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15269,7 +15269,7 @@
         <v>687</v>
       </c>
       <c r="H379" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15295,7 +15295,7 @@
         <v>687</v>
       </c>
       <c r="H380" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15321,7 +15321,7 @@
         <v>634</v>
       </c>
       <c r="H381" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15347,7 +15347,7 @@
         <v>634</v>
       </c>
       <c r="H382" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15373,7 +15373,7 @@
         <v>634</v>
       </c>
       <c r="H383" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15399,7 +15399,7 @@
         <v>634</v>
       </c>
       <c r="H384" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15425,7 +15425,7 @@
         <v>634</v>
       </c>
       <c r="H385" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15451,7 +15451,7 @@
         <v>634</v>
       </c>
       <c r="H386" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15477,7 +15477,7 @@
         <v>688</v>
       </c>
       <c r="H387" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15503,7 +15503,7 @@
         <v>688</v>
       </c>
       <c r="H388" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15529,7 +15529,7 @@
         <v>688</v>
       </c>
       <c r="H389" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15555,7 +15555,7 @@
         <v>688</v>
       </c>
       <c r="H390" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15581,7 +15581,7 @@
         <v>688</v>
       </c>
       <c r="H391" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15607,7 +15607,7 @@
         <v>688</v>
       </c>
       <c r="H392" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15633,7 +15633,7 @@
         <v>688</v>
       </c>
       <c r="H393" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15659,7 +15659,7 @@
         <v>688</v>
       </c>
       <c r="H394" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15685,7 +15685,7 @@
         <v>688</v>
       </c>
       <c r="H395" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -15711,7 +15711,7 @@
         <v>688</v>
       </c>
       <c r="H396" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -15737,7 +15737,7 @@
         <v>688</v>
       </c>
       <c r="H397" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -15760,7 +15760,7 @@
         <v>688</v>
       </c>
       <c r="H398" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -15786,7 +15786,7 @@
         <v>715</v>
       </c>
       <c r="H399" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -15812,7 +15812,7 @@
         <v>715</v>
       </c>
       <c r="H400" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15838,7 +15838,7 @@
         <v>613</v>
       </c>
       <c r="H401" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -15864,7 +15864,7 @@
         <v>613</v>
       </c>
       <c r="H402" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -15890,7 +15890,7 @@
         <v>613</v>
       </c>
       <c r="H403" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -15916,7 +15916,7 @@
         <v>613</v>
       </c>
       <c r="H404" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -15942,7 +15942,7 @@
         <v>613</v>
       </c>
       <c r="H405" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -15968,7 +15968,7 @@
         <v>613</v>
       </c>
       <c r="H406" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -15994,7 +15994,7 @@
         <v>613</v>
       </c>
       <c r="H407" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16020,7 +16020,7 @@
         <v>613</v>
       </c>
       <c r="H408" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16046,7 +16046,7 @@
         <v>613</v>
       </c>
       <c r="H409" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16072,7 +16072,7 @@
         <v>613</v>
       </c>
       <c r="H410" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16098,7 +16098,7 @@
         <v>610</v>
       </c>
       <c r="H411" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16124,7 +16124,7 @@
         <v>610</v>
       </c>
       <c r="H412" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16150,7 +16150,7 @@
         <v>610</v>
       </c>
       <c r="H413" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16176,7 +16176,7 @@
         <v>610</v>
       </c>
       <c r="H414" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16202,7 +16202,7 @@
         <v>610</v>
       </c>
       <c r="H415" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16228,7 +16228,7 @@
         <v>632</v>
       </c>
       <c r="H416" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16254,7 +16254,7 @@
         <v>632</v>
       </c>
       <c r="H417" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16280,7 +16280,7 @@
         <v>632</v>
       </c>
       <c r="H418" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16306,7 +16306,7 @@
         <v>632</v>
       </c>
       <c r="H419" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16332,7 +16332,7 @@
         <v>632</v>
       </c>
       <c r="H420" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16358,7 +16358,7 @@
         <v>632</v>
       </c>
       <c r="H421" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16384,7 +16384,7 @@
         <v>632</v>
       </c>
       <c r="H422" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16410,7 +16410,7 @@
         <v>632</v>
       </c>
       <c r="H423" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16436,7 +16436,7 @@
         <v>632</v>
       </c>
       <c r="H424" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16462,7 +16462,7 @@
         <v>642</v>
       </c>
       <c r="H425" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16488,7 +16488,7 @@
         <v>642</v>
       </c>
       <c r="H426" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16514,7 +16514,7 @@
         <v>642</v>
       </c>
       <c r="H427" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16540,7 +16540,7 @@
         <v>642</v>
       </c>
       <c r="H428" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16566,7 +16566,7 @@
         <v>642</v>
       </c>
       <c r="H429" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16592,7 +16592,7 @@
         <v>642</v>
       </c>
       <c r="H430" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16618,7 +16618,7 @@
         <v>642</v>
       </c>
       <c r="H431" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16644,7 +16644,7 @@
         <v>642</v>
       </c>
       <c r="H432" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16670,7 +16670,7 @@
         <v>642</v>
       </c>
       <c r="H433" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16696,7 +16696,7 @@
         <v>642</v>
       </c>
       <c r="H434" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -16722,7 +16722,7 @@
         <v>642</v>
       </c>
       <c r="H435" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -16748,7 +16748,7 @@
         <v>607</v>
       </c>
       <c r="H436" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -16774,7 +16774,7 @@
         <v>607</v>
       </c>
       <c r="H437" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -16800,7 +16800,7 @@
         <v>607</v>
       </c>
       <c r="H438" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -16826,7 +16826,7 @@
         <v>607</v>
       </c>
       <c r="H439" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -16852,7 +16852,7 @@
         <v>607</v>
       </c>
       <c r="H440" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -16878,7 +16878,7 @@
         <v>607</v>
       </c>
       <c r="H441" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -16904,7 +16904,7 @@
         <v>607</v>
       </c>
       <c r="H442" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -16930,7 +16930,7 @@
         <v>607</v>
       </c>
       <c r="H443" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -16956,7 +16956,7 @@
         <v>607</v>
       </c>
       <c r="H444" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -16982,7 +16982,7 @@
         <v>607</v>
       </c>
       <c r="H445" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17008,7 +17008,7 @@
         <v>607</v>
       </c>
       <c r="H446" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17034,7 +17034,7 @@
         <v>607</v>
       </c>
       <c r="H447" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17060,7 +17060,7 @@
         <v>607</v>
       </c>
       <c r="H448" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17086,7 +17086,7 @@
         <v>607</v>
       </c>
       <c r="H449" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17112,7 +17112,7 @@
         <v>607</v>
       </c>
       <c r="H450" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17138,7 +17138,7 @@
         <v>607</v>
       </c>
       <c r="H451" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17164,7 +17164,7 @@
         <v>607</v>
       </c>
       <c r="H452" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17190,7 +17190,7 @@
         <v>607</v>
       </c>
       <c r="H453" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17216,7 +17216,7 @@
         <v>588</v>
       </c>
       <c r="H454" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17242,7 +17242,7 @@
         <v>588</v>
       </c>
       <c r="H455" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17268,7 +17268,7 @@
         <v>588</v>
       </c>
       <c r="H456" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17294,7 +17294,7 @@
         <v>588</v>
       </c>
       <c r="H457" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17320,7 +17320,7 @@
         <v>588</v>
       </c>
       <c r="H458" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17346,7 +17346,7 @@
         <v>588</v>
       </c>
       <c r="H459" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17372,7 +17372,7 @@
         <v>588</v>
       </c>
       <c r="H460" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17398,7 +17398,7 @@
         <v>588</v>
       </c>
       <c r="H461" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17424,7 +17424,7 @@
         <v>588</v>
       </c>
       <c r="H462" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17450,7 +17450,7 @@
         <v>588</v>
       </c>
       <c r="H463" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17476,7 +17476,7 @@
         <v>588</v>
       </c>
       <c r="H464" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17502,7 +17502,7 @@
         <v>588</v>
       </c>
       <c r="H465" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -17525,7 +17525,7 @@
         <v>588</v>
       </c>
       <c r="H466" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -17551,7 +17551,7 @@
         <v>588</v>
       </c>
       <c r="H467" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -17577,7 +17577,7 @@
         <v>588</v>
       </c>
       <c r="H468" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -17603,7 +17603,7 @@
         <v>588</v>
       </c>
       <c r="H469" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -17629,7 +17629,7 @@
         <v>588</v>
       </c>
       <c r="H470" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -17655,7 +17655,7 @@
         <v>588</v>
       </c>
       <c r="H471" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -17681,7 +17681,7 @@
         <v>588</v>
       </c>
       <c r="H472" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -17707,7 +17707,7 @@
         <v>588</v>
       </c>
       <c r="H473" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -17733,7 +17733,7 @@
         <v>588</v>
       </c>
       <c r="H474" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -17759,7 +17759,7 @@
         <v>588</v>
       </c>
       <c r="H475" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -17785,7 +17785,7 @@
         <v>588</v>
       </c>
       <c r="H476" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -17811,7 +17811,7 @@
         <v>588</v>
       </c>
       <c r="H477" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -17837,7 +17837,7 @@
         <v>588</v>
       </c>
       <c r="H478" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -17863,7 +17863,7 @@
         <v>588</v>
       </c>
       <c r="H479" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -17889,7 +17889,7 @@
         <v>588</v>
       </c>
       <c r="H480" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -17915,7 +17915,7 @@
         <v>588</v>
       </c>
       <c r="H481" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -17941,7 +17941,7 @@
         <v>588</v>
       </c>
       <c r="H482" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -17967,7 +17967,7 @@
         <v>588</v>
       </c>
       <c r="H483" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -17993,7 +17993,7 @@
         <v>1242</v>
       </c>
       <c r="H484" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -18019,7 +18019,7 @@
         <v>1242</v>
       </c>
       <c r="H485" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -18045,7 +18045,7 @@
         <v>1242</v>
       </c>
       <c r="H486" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -18071,7 +18071,7 @@
         <v>1242</v>
       </c>
       <c r="H487" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -18097,7 +18097,7 @@
         <v>1242</v>
       </c>
       <c r="H488" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -18123,7 +18123,7 @@
         <v>1242</v>
       </c>
       <c r="H489" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -18149,7 +18149,7 @@
         <v>1242</v>
       </c>
       <c r="H490" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -18175,7 +18175,7 @@
         <v>1242</v>
       </c>
       <c r="H491" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -18201,7 +18201,7 @@
         <v>1242</v>
       </c>
       <c r="H492" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -18227,7 +18227,7 @@
         <v>1242</v>
       </c>
       <c r="H493" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -18253,7 +18253,7 @@
         <v>1242</v>
       </c>
       <c r="H494" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -18279,7 +18279,7 @@
         <v>1242</v>
       </c>
       <c r="H495" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -18305,7 +18305,7 @@
         <v>1242</v>
       </c>
       <c r="H496" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -18331,7 +18331,7 @@
         <v>1242</v>
       </c>
       <c r="H497" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -18357,7 +18357,7 @@
         <v>1242</v>
       </c>
       <c r="H498" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -18383,7 +18383,7 @@
         <v>1242</v>
       </c>
       <c r="H499" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -18409,7 +18409,7 @@
         <v>1242</v>
       </c>
       <c r="H500" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -18435,7 +18435,7 @@
         <v>1242</v>
       </c>
       <c r="H501" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -18461,7 +18461,7 @@
         <v>1242</v>
       </c>
       <c r="H502" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -18487,7 +18487,7 @@
         <v>1242</v>
       </c>
       <c r="H503" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -18513,7 +18513,7 @@
         <v>1242</v>
       </c>
       <c r="H504" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -18539,7 +18539,7 @@
         <v>1242</v>
       </c>
       <c r="H505" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -18565,7 +18565,7 @@
         <v>1242</v>
       </c>
       <c r="H506" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -18591,7 +18591,7 @@
         <v>1242</v>
       </c>
       <c r="H507" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -18617,7 +18617,7 @@
         <v>1242</v>
       </c>
       <c r="H508" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -18643,7 +18643,7 @@
         <v>1242</v>
       </c>
       <c r="H509" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -18669,7 +18669,7 @@
         <v>1242</v>
       </c>
       <c r="H510" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -18695,7 +18695,7 @@
         <v>1242</v>
       </c>
       <c r="H511" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -18721,7 +18721,7 @@
         <v>1242</v>
       </c>
       <c r="H512" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -18747,7 +18747,7 @@
         <v>1242</v>
       </c>
       <c r="H513" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -18773,7 +18773,7 @@
         <v>1242</v>
       </c>
       <c r="H514" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -18799,7 +18799,7 @@
         <v>1242</v>
       </c>
       <c r="H515" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -18825,7 +18825,7 @@
         <v>1242</v>
       </c>
       <c r="H516" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -18851,7 +18851,7 @@
         <v>1242</v>
       </c>
       <c r="H517" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -18877,7 +18877,7 @@
         <v>1242</v>
       </c>
       <c r="H518" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -18903,7 +18903,7 @@
         <v>1242</v>
       </c>
       <c r="H519" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -18929,7 +18929,7 @@
         <v>1242</v>
       </c>
       <c r="H520" s="2">
-        <v>45591.31628338132</v>
+        <v>45591.5274578274</v>
       </c>
     </row>
   </sheetData>
